--- a/TDD_examples/CASE_3_HTS_HVDC/conductor_1_operation.xlsx
+++ b/TDD_examples/CASE_3_HTS_HVDC/conductor_1_operation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.placido\3D Objects\OPENSC2\TDD_examples\CASE_3_HTS_HVDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1B030F-38CD-4C9B-905A-230FB5D7C9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAA0EAC-31E7-4A75-AB9B-B34CCA0B01F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,10 +561,11 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CHAN"/>
+      <sheetName val="STACK"/>
       <sheetName val="STR_MIX"/>
-      <sheetName val="STR_SC"/>
       <sheetName val="STR_STAB"/>
       <sheetName val="Z_JACKET"/>
+      <sheetName val="STR_SC"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -597,17 +598,14 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
-            <v>STR_MIX</v>
-          </cell>
-          <cell r="E1">
-            <v>0</v>
+            <v>STACK</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
-            <v>STR_SC</v>
+            <v>STR_MIX</v>
           </cell>
           <cell r="E1">
             <v>0</v>
@@ -646,6 +644,13 @@
           </cell>
           <cell r="J1">
             <v>6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STR_SC</v>
           </cell>
         </row>
       </sheetData>
@@ -1254,7 +1259,7 @@
       <selection activeCell="D10" sqref="D10"/>
       <selection pane="topRight" activeCell="D10" sqref="D10"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,8 +1274,8 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="str">
-        <f>[1]STR_SC!$A$1</f>
-        <v>STR_SC</v>
+        <f>[1]STACK!$A$1</f>
+        <v>STACK</v>
       </c>
       <c r="B1" s="18">
         <f>SUM(E2:AE2)</f>
@@ -1281,7 +1286,7 @@
         <v>78</v>
       </c>
       <c r="E1" s="14">
-        <f>[1]STR_SC!E$1</f>
+        <f>[1]STR_MIX!E$1</f>
         <v>0</v>
       </c>
     </row>
@@ -1316,7 +1321,7 @@
       </c>
       <c r="E3" s="14" t="str">
         <f>_xlfn.TEXTJOIN("_",,$A$1,E$1)</f>
-        <v>STR_SC_0</v>
+        <v>STACK_0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1841,7 +1846,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
